--- a/temp_doc/DATA ANGGOTA.xlsx
+++ b/temp_doc/DATA ANGGOTA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/perpus2/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BBB2C4-5497-3E46-A015-231580F4F0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428D2B91-D318-2445-88B5-64C61593C407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{C2DF4825-A3F3-3448-8155-B425CFE61A72}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{C2DF4825-A3F3-3448-8155-B425CFE61A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14410,8 +14410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77502278-491A-0E43-BE59-BA16D7394E99}">
   <dimension ref="A1:I1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A791" workbookViewId="0">
-      <selection activeCell="F814" sqref="F814"/>
+    <sheetView tabSelected="1" topLeftCell="A737" workbookViewId="0">
+      <selection activeCell="F752" sqref="F752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
